--- a/ExportData/Test 2 User 3.xlsx
+++ b/ExportData/Test 2 User 3.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M239"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02</v>
+        <v>8.23</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -596,7 +596,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04</v>
+        <v>8.25</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -628,7 +628,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -660,7 +660,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -692,7 +692,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.12</v>
+        <v>8.33</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -724,7 +724,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.14</v>
+        <v>8.35</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -756,7 +756,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.17</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -788,7 +788,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.19</v>
+        <v>8.4</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -820,7 +820,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.22</v>
+        <v>8.43</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -852,7 +852,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.24</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -884,7 +884,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.27</v>
+        <v>8.48</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -916,7 +916,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.29</v>
+        <v>8.5</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -948,7 +948,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.32</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -980,7 +980,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.34</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -1012,7 +1012,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.37</v>
+        <v>8.58</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -1044,7 +1044,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.39</v>
+        <v>8.6</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -1076,7 +1076,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.42</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -1108,7 +1108,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.44</v>
+        <v>8.65</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -1140,7 +1140,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.47</v>
+        <v>8.68</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -1172,7 +1172,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.49</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -1204,7 +1204,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.57</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1236,7 +1236,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.64</v>
+        <v>8.85</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1268,7 +1268,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.72</v>
+        <v>8.93</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1300,10 +1300,10 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.79</v>
+        <v>9.15</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.09</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.29</v>
@@ -1364,10 +1364,10 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.28</v>
+        <v>9.75</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>1.58</v>
+        <v>10.05</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.29</v>
@@ -1428,7 +1428,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>1.88</v>
+        <v>10.35</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.29</v>
@@ -1460,7 +1460,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>2.18</v>
+        <v>10.65</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.29</v>
@@ -1492,7 +1492,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>2.48</v>
+        <v>10.95</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.29</v>
@@ -1524,7 +1524,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.78</v>
+        <v>11.25</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.29</v>
@@ -1556,7 +1556,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.29</v>
@@ -1588,7 +1588,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.99</v>
+        <v>11.46</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>-0.09</v>
@@ -1748,7 +1748,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.89</v>
+        <v>11.36</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>-0.09</v>
@@ -1780,7 +1780,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>2.8</v>
+        <v>11.27</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>-0.09</v>
@@ -1812,7 +1812,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>2.7</v>
+        <v>11.17</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>-0.09</v>
@@ -1844,7 +1844,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>2.42</v>
+        <v>10.89</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>-0.28</v>
@@ -1876,7 +1876,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>2.13</v>
+        <v>10.6</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.28</v>
@@ -1908,7 +1908,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.85</v>
+        <v>10.32</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>-0.28</v>
@@ -1940,7 +1940,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.56</v>
+        <v>10.03</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>-0.28</v>
@@ -1972,7 +1972,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>1.2</v>
+        <v>9.67</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>-0.36</v>
@@ -2004,10 +2004,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.83</v>
+        <v>9.19</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>10</v>
@@ -2036,10 +2036,10 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.47</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>10</v>
@@ -2068,10 +2068,10 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.18</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.34</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>10.067</v>
@@ -2100,7 +2100,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.12</v>
+        <v>8.06</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>-0.3</v>
@@ -2132,7 +2132,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.42</v>
+        <v>7.76</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>-0.3</v>
@@ -2164,7 +2164,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>-0.71</v>
+        <v>7.47</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>-0.29</v>
@@ -2196,7 +2196,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>-1</v>
+        <v>7.17</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>-0.29</v>
@@ -2228,7 +2228,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>-1.35</v>
+        <v>6.82</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>-0.34</v>
@@ -2260,7 +2260,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>-1.7</v>
+        <v>6.47</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>-0.34</v>
@@ -2292,7 +2292,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>-2.05</v>
+        <v>6.12</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>-0.34</v>
@@ -2324,10 +2324,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>-2.4</v>
+        <v>5.86</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>9.867000000000001</v>
@@ -2356,7 +2356,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>-2.58</v>
+        <v>5.68</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>-0.17</v>
@@ -2388,7 +2388,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>-2.76</v>
+        <v>5.5</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>-0.17</v>
@@ -2420,7 +2420,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>-2.94</v>
+        <v>5.32</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>-0.17</v>
@@ -2452,7 +2452,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>-3.12</v>
+        <v>5.15</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>-0.17</v>
@@ -2484,7 +2484,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>-3.19</v>
+        <v>5.08</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>-0.06</v>
@@ -2516,7 +2516,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>-3.26</v>
+        <v>5.01</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>-0.06</v>
@@ -2548,7 +2548,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>-3.33</v>
+        <v>4.94</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>-0.06</v>
@@ -2580,7 +2580,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>-0.09</v>
@@ -2612,7 +2612,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>-3.2</v>
+        <v>5.07</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.22</v>
@@ -2772,7 +2772,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>-2.98</v>
+        <v>5.29</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.22</v>
@@ -2804,7 +2804,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>-2.75</v>
+        <v>5.52</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.22</v>
@@ -2836,7 +2836,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>-2.53</v>
+        <v>5.74</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.22</v>
@@ -2868,7 +2868,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>-2.3</v>
+        <v>5.97</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.22</v>
@@ -2900,7 +2900,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>-2.08</v>
+        <v>6.19</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.22</v>
@@ -2932,10 +2932,10 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>-1.85</v>
+        <v>6.33</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>-1.63</v>
+        <v>6.56</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.22</v>
@@ -2996,7 +2996,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>-1.33</v>
+        <v>6.86</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -3028,7 +3028,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>-1.03</v>
+        <v>7.16</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -3060,7 +3060,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>-0.73</v>
+        <v>7.46</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -3092,7 +3092,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>-0.43</v>
+        <v>7.76</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.29</v>
@@ -3124,7 +3124,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>-0.13</v>
+        <v>8.06</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -3156,7 +3156,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>0.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -3188,7 +3188,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>0.46</v>
+        <v>8.66</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -3220,7 +3220,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>0.76</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -3252,7 +3252,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>1.06</v>
+        <v>9.26</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.29</v>
@@ -3284,7 +3284,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>1.36</v>
+        <v>9.56</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.29</v>
@@ -3316,7 +3316,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>1.66</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.29</v>
@@ -3348,7 +3348,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>1.76</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.09</v>
@@ -3380,7 +3380,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>1.84</v>
+        <v>10.03</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3412,7 +3412,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>1.91</v>
+        <v>10.11</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3444,7 +3444,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>1.99</v>
+        <v>10.18</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3476,7 +3476,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>2.06</v>
+        <v>10.26</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3508,7 +3508,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>2.11</v>
+        <v>10.31</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.04</v>
@@ -3540,7 +3540,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>2.16</v>
+        <v>10.36</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.04</v>
@@ -3572,7 +3572,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>2.21</v>
+        <v>10.41</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.04</v>
@@ -3604,7 +3604,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>2.26</v>
+        <v>10.46</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.04</v>
@@ -3636,10 +3636,10 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>2.29</v>
+        <v>10.53</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>2.31</v>
+        <v>10.61</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>2.34</v>
+        <v>10.63</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -3732,7 +3732,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>2.36</v>
+        <v>10.66</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -3764,7 +3764,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>2.39</v>
+        <v>10.68</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -3796,7 +3796,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>2.41</v>
+        <v>10.71</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -3828,7 +3828,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>2.44</v>
+        <v>10.73</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -3860,7 +3860,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>2.46</v>
+        <v>10.76</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -3892,7 +3892,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>2.49</v>
+        <v>10.78</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -3924,7 +3924,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>2.51</v>
+        <v>10.81</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -3956,7 +3956,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>2.54</v>
+        <v>10.83</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -3988,7 +3988,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>2.56</v>
+        <v>10.86</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -4020,7 +4020,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>2.59</v>
+        <v>10.88</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -4052,7 +4052,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>2.61</v>
+        <v>10.91</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -4084,7 +4084,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>2.64</v>
+        <v>10.93</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -4116,7 +4116,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>2.66</v>
+        <v>10.96</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -4148,7 +4148,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>2.69</v>
+        <v>10.98</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -4180,7 +4180,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>2.71</v>
+        <v>11.01</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -4212,7 +4212,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>2.74</v>
+        <v>11.03</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -4244,7 +4244,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>2.76</v>
+        <v>11.06</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -4276,7 +4276,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>2.84</v>
+        <v>11.13</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4308,7 +4308,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>2.91</v>
+        <v>11.21</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4340,7 +4340,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>2.99</v>
+        <v>11.28</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4372,7 +4372,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>3.21</v>
+        <v>11.51</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.22</v>
@@ -4404,7 +4404,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>3.51</v>
+        <v>11.81</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.29</v>
@@ -4436,7 +4436,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>3.81</v>
+        <v>12.11</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.29</v>
@@ -4468,7 +4468,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>4.11</v>
+        <v>12.41</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.29</v>
@@ -4500,7 +4500,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>4.41</v>
+        <v>12.71</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.29</v>
@@ -4532,7 +4532,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>4.71</v>
+        <v>13.01</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.29</v>
@@ -4564,7 +4564,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>5.01</v>
+        <v>13.31</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.29</v>
@@ -4596,7 +4596,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>5.31</v>
+        <v>13.61</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.29</v>
@@ -4628,7 +4628,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.29</v>
@@ -4660,7 +4660,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>5.52</v>
+        <v>13.81</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>-0.09</v>
@@ -4820,7 +4820,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>5.42</v>
+        <v>13.72</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>-0.09</v>
@@ -4852,7 +4852,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>5.33</v>
+        <v>13.62</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>-0.09</v>
@@ -4884,7 +4884,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>5.23</v>
+        <v>13.53</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>-0.09</v>
@@ -4916,7 +4916,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>4.95</v>
+        <v>13.24</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>-0.28</v>
@@ -4948,7 +4948,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>4.66</v>
+        <v>12.96</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>-0.28</v>
@@ -4980,7 +4980,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>4.38</v>
+        <v>12.67</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>-0.28</v>
@@ -5012,7 +5012,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>4.09</v>
+        <v>12.39</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>-0.28</v>
@@ -5044,7 +5044,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>3.73</v>
+        <v>12.02</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>-0.36</v>
@@ -5076,10 +5076,10 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>3.36</v>
+        <v>11.55</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>10</v>
@@ -5108,10 +5108,10 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>3</v>
+        <v>11.07</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>10</v>
@@ -5140,10 +5140,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>2.71</v>
+        <v>10.72</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.34</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>10.067</v>
@@ -5172,7 +5172,7 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>2.4</v>
+        <v>10.41</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>-0.3</v>
@@ -5204,7 +5204,7 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>2.1</v>
+        <v>10.11</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>-0.3</v>
@@ -5236,7 +5236,7 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>1.81</v>
+        <v>9.82</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>-0.29</v>
@@ -5268,7 +5268,7 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>1.51</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>-0.29</v>
@@ -5300,7 +5300,7 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>1.16</v>
+        <v>9.18</v>
       </c>
       <c r="D153" s="5" t="n">
         <v>-0.34</v>
@@ -5332,7 +5332,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>-0.34</v>
@@ -5364,7 +5364,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>0.46</v>
+        <v>8.48</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>-0.34</v>
@@ -5396,10 +5396,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>0.11</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>9.867000000000001</v>
@@ -5428,10 +5428,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>-0.09</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>6</v>
@@ -5460,7 +5460,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>-0.27</v>
+        <v>7.86</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>-0.17</v>
@@ -5492,7 +5492,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>-0.45</v>
+        <v>7.68</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>-0.17</v>
@@ -5524,7 +5524,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>-0.63</v>
+        <v>7.5</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>-0.17</v>
@@ -5556,7 +5556,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>-0.7</v>
+        <v>7.43</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>-0.06</v>
@@ -5588,7 +5588,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>-0.77</v>
+        <v>7.36</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>-0.06</v>
@@ -5620,7 +5620,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>-0.84</v>
+        <v>7.29</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>-0.06</v>
@@ -5652,7 +5652,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>-0.09</v>
@@ -5684,7 +5684,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>-0.71</v>
+        <v>7.42</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.22</v>
@@ -5844,7 +5844,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>-0.48</v>
+        <v>7.64</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.22</v>
@@ -5876,7 +5876,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>-0.26</v>
+        <v>7.87</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.22</v>
@@ -5908,7 +5908,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>-0.03</v>
+        <v>8.09</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.22</v>
@@ -5940,7 +5940,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>0.18</v>
+        <v>8.32</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.22</v>
@@ -5972,7 +5972,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>0.41</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.22</v>
@@ -6004,7 +6004,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>0.63</v>
+        <v>8.77</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.22</v>
@@ -6036,7 +6036,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>0.86</v>
+        <v>8.99</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.22</v>
@@ -6068,7 +6068,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>1.16</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -6100,7 +6100,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>1.46</v>
+        <v>9.59</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -6132,7 +6132,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>1.76</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -6164,7 +6164,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>2.06</v>
+        <v>10.19</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -6196,7 +6196,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>2.36</v>
+        <v>10.49</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -6228,7 +6228,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>2.66</v>
+        <v>10.79</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -6260,7 +6260,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>2.96</v>
+        <v>11.09</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -6292,7 +6292,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>3.26</v>
+        <v>11.39</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -6324,7 +6324,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>3.56</v>
+        <v>11.69</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.29</v>
@@ -6356,7 +6356,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>3.86</v>
+        <v>11.99</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.29</v>
@@ -6388,7 +6388,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>4.16</v>
+        <v>12.29</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.29</v>
@@ -6420,7 +6420,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>4.26</v>
+        <v>12.39</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.09</v>
@@ -6452,7 +6452,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>4.33</v>
+        <v>12.47</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6484,7 +6484,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>4.41</v>
+        <v>12.54</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6516,7 +6516,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>4.48</v>
+        <v>12.62</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6548,7 +6548,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>4.56</v>
+        <v>12.69</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6580,7 +6580,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>4.61</v>
+        <v>12.74</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.04</v>
@@ -6612,7 +6612,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>4.66</v>
+        <v>12.79</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.04</v>
@@ -6644,7 +6644,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>4.71</v>
+        <v>12.84</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.04</v>
@@ -6676,7 +6676,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>4.76</v>
+        <v>12.89</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.04</v>
@@ -6708,7 +6708,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>4.78</v>
+        <v>12.92</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -6740,7 +6740,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>4.81</v>
+        <v>12.94</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -6772,7 +6772,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>4.83</v>
+        <v>12.97</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -6804,7 +6804,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>4.86</v>
+        <v>12.99</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -6836,7 +6836,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>4.88</v>
+        <v>13.02</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -6868,7 +6868,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>4.91</v>
+        <v>13.04</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -6900,7 +6900,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>4.93</v>
+        <v>13.07</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -6932,7 +6932,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>4.96</v>
+        <v>13.09</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -6964,7 +6964,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>4.98</v>
+        <v>13.12</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -6996,7 +6996,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>5.01</v>
+        <v>13.14</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -7028,7 +7028,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>5.03</v>
+        <v>13.17</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -7060,7 +7060,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>5.06</v>
+        <v>13.19</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -7092,7 +7092,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>5.08</v>
+        <v>13.22</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -7124,7 +7124,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>5.11</v>
+        <v>13.24</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -7156,7 +7156,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>5.13</v>
+        <v>13.27</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -7188,7 +7188,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>5.16</v>
+        <v>13.29</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -7220,7 +7220,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>5.18</v>
+        <v>13.32</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -7252,7 +7252,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>5.21</v>
+        <v>13.34</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -7284,7 +7284,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>5.23</v>
+        <v>13.37</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -7316,7 +7316,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>5.26</v>
+        <v>13.39</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -7348,7 +7348,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>5.33</v>
+        <v>13.47</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7380,7 +7380,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>5.41</v>
+        <v>13.54</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7412,7 +7412,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>5.48</v>
+        <v>13.62</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7444,7 +7444,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>5.71</v>
+        <v>13.84</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.22</v>
@@ -7476,7 +7476,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>6.01</v>
+        <v>14.14</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.29</v>
@@ -7508,7 +7508,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>6.31</v>
+        <v>14.44</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.29</v>
@@ -7540,7 +7540,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>6.61</v>
+        <v>14.74</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.29</v>
@@ -7572,7 +7572,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>6.91</v>
+        <v>15.04</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.29</v>
@@ -7604,7 +7604,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>7.21</v>
+        <v>15.34</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.29</v>
@@ -7636,7 +7636,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>7.51</v>
+        <v>15.64</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.29</v>
@@ -7668,7 +7668,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>7.81</v>
+        <v>15.94</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.29</v>
@@ -7700,7 +7700,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.29</v>
@@ -7732,7 +7732,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0</v>
@@ -7796,7 +7796,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0</v>
@@ -7860,7 +7860,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>8.01</v>
+        <v>16.15</v>
       </c>
       <c r="D233" s="5" t="n">
         <v>-0.09</v>
@@ -7892,7 +7892,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>7.92</v>
+        <v>16.05</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>-0.09</v>
@@ -7924,7 +7924,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>7.82</v>
+        <v>15.96</v>
       </c>
       <c r="D235" s="5" t="n">
         <v>-0.09</v>
@@ -7956,7 +7956,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>7.73</v>
+        <v>15.86</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>-0.09</v>
@@ -7988,7 +7988,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>7.44</v>
+        <v>15.58</v>
       </c>
       <c r="D237" s="5" t="n">
         <v>-0.28</v>
@@ -8020,7 +8020,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>7.16</v>
+        <v>15.29</v>
       </c>
       <c r="D238" s="5" t="n">
         <v>-0.28</v>
@@ -8052,7 +8052,7 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>6.87</v>
+        <v>15.01</v>
       </c>
       <c r="D239" s="5" t="n">
         <v>-0.28</v>
@@ -8076,6 +8076,1670 @@
         <v>0</v>
       </c>
       <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>6.133</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>8.132999999999999</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>10.067</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>12.067</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>11.933</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>13.933</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>11.867</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>7.867</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8090,7 +9754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M239"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8179,7 +9843,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -8211,7 +9875,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02</v>
+        <v>8.23</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -8243,7 +9907,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04</v>
+        <v>8.25</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -8275,7 +9939,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -8307,7 +9971,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -8339,7 +10003,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.12</v>
+        <v>8.33</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -8371,7 +10035,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.14</v>
+        <v>8.35</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -8403,7 +10067,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.17</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -8435,7 +10099,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.19</v>
+        <v>8.4</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -8467,7 +10131,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.22</v>
+        <v>8.43</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -8499,7 +10163,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.24</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -8531,7 +10195,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.27</v>
+        <v>8.48</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -8563,7 +10227,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.29</v>
+        <v>8.5</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -8595,7 +10259,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.32</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -8627,7 +10291,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.34</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -8659,7 +10323,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.37</v>
+        <v>8.58</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -8691,7 +10355,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.39</v>
+        <v>8.6</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -8723,7 +10387,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.42</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -8755,7 +10419,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.44</v>
+        <v>8.65</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -8787,7 +10451,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.47</v>
+        <v>8.68</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -8819,7 +10483,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.49</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -8851,7 +10515,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.57</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -8883,7 +10547,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.64</v>
+        <v>8.85</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -8915,7 +10579,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.72</v>
+        <v>8.93</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -8947,10 +10611,10 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.79</v>
+        <v>9.15</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0.75</v>
@@ -8979,7 +10643,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.09</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.29</v>
@@ -9011,10 +10675,10 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.28</v>
+        <v>9.75</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>1</v>
@@ -9043,7 +10707,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>1.58</v>
+        <v>10.05</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.29</v>
@@ -9075,7 +10739,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>1.88</v>
+        <v>10.35</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.29</v>
@@ -9107,7 +10771,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>2.18</v>
+        <v>10.65</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.29</v>
@@ -9139,7 +10803,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>2.48</v>
+        <v>10.95</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.29</v>
@@ -9171,7 +10835,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.78</v>
+        <v>11.25</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.29</v>
@@ -9203,7 +10867,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.29</v>
@@ -9235,7 +10899,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -9267,7 +10931,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -9299,7 +10963,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
@@ -9331,7 +10995,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>3.08</v>
+        <v>11.55</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -9363,7 +11027,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.99</v>
+        <v>11.46</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>-0.09</v>
@@ -9395,7 +11059,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.89</v>
+        <v>11.36</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>-0.09</v>
@@ -9427,7 +11091,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>2.8</v>
+        <v>11.27</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>-0.09</v>
@@ -9459,7 +11123,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>2.7</v>
+        <v>11.17</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>-0.09</v>
@@ -9491,7 +11155,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>2.42</v>
+        <v>10.89</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>-0.28</v>
@@ -9523,7 +11187,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>2.13</v>
+        <v>10.6</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.28</v>
@@ -9555,7 +11219,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.85</v>
+        <v>10.32</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>-0.28</v>
@@ -9587,7 +11251,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.56</v>
+        <v>10.03</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>-0.28</v>
@@ -9619,7 +11283,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>1.2</v>
+        <v>9.67</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>-0.36</v>
@@ -9651,10 +11315,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.83</v>
+        <v>9.19</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>0</v>
@@ -9683,10 +11347,10 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.47</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>0</v>
@@ -9715,10 +11379,10 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.18</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.34</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>0</v>
@@ -9747,7 +11411,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.12</v>
+        <v>8.06</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>-0.3</v>
@@ -9779,7 +11443,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.42</v>
+        <v>7.76</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>-0.3</v>
@@ -9811,7 +11475,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>-0.71</v>
+        <v>7.47</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>-0.29</v>
@@ -9843,7 +11507,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>-1</v>
+        <v>7.17</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>-0.29</v>
@@ -9875,7 +11539,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>-1.35</v>
+        <v>6.82</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>-0.34</v>
@@ -9907,7 +11571,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>-1.7</v>
+        <v>6.47</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>-0.34</v>
@@ -9939,7 +11603,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>-2.05</v>
+        <v>6.12</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>-0.34</v>
@@ -9971,10 +11635,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>-2.4</v>
+        <v>5.86</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>0</v>
@@ -10003,7 +11667,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>-2.58</v>
+        <v>5.68</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>-0.17</v>
@@ -10035,7 +11699,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>-2.76</v>
+        <v>5.5</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>-0.17</v>
@@ -10067,7 +11731,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>-2.94</v>
+        <v>5.32</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>-0.17</v>
@@ -10099,7 +11763,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>-3.12</v>
+        <v>5.15</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>-0.17</v>
@@ -10131,7 +11795,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>-3.19</v>
+        <v>5.08</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>-0.06</v>
@@ -10163,7 +11827,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>-3.26</v>
+        <v>5.01</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>-0.06</v>
@@ -10195,7 +11859,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>-3.33</v>
+        <v>4.94</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>-0.06</v>
@@ -10227,7 +11891,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>-0.09</v>
@@ -10259,7 +11923,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0</v>
@@ -10291,7 +11955,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0</v>
@@ -10323,7 +11987,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0</v>
@@ -10355,7 +12019,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>-3.43</v>
+        <v>4.84</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0</v>
@@ -10387,7 +12051,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>-3.2</v>
+        <v>5.07</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.22</v>
@@ -10419,7 +12083,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>-2.98</v>
+        <v>5.29</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.22</v>
@@ -10451,7 +12115,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>-2.75</v>
+        <v>5.52</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.22</v>
@@ -10483,7 +12147,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>-2.53</v>
+        <v>5.74</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.22</v>
@@ -10515,7 +12179,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>-2.3</v>
+        <v>5.97</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.22</v>
@@ -10547,7 +12211,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>-2.08</v>
+        <v>6.19</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.22</v>
@@ -10579,10 +12243,10 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>-1.85</v>
+        <v>6.33</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>0.75</v>
@@ -10611,7 +12275,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>-1.63</v>
+        <v>6.56</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.22</v>
@@ -10643,7 +12307,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>-1.33</v>
+        <v>6.86</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -10675,7 +12339,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>-1.03</v>
+        <v>7.16</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -10707,7 +12371,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>-0.73</v>
+        <v>7.46</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -10739,7 +12403,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>-0.43</v>
+        <v>7.76</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.29</v>
@@ -10771,7 +12435,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>-0.13</v>
+        <v>8.06</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -10803,7 +12467,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>0.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -10835,7 +12499,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>0.46</v>
+        <v>8.66</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -10867,7 +12531,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>0.76</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -10899,7 +12563,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>1.06</v>
+        <v>9.26</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.29</v>
@@ -10931,7 +12595,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>1.36</v>
+        <v>9.56</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.29</v>
@@ -10963,7 +12627,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>1.66</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.29</v>
@@ -10995,7 +12659,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>1.76</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.09</v>
@@ -11027,7 +12691,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>1.84</v>
+        <v>10.03</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11059,7 +12723,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>1.91</v>
+        <v>10.11</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11091,7 +12755,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>1.99</v>
+        <v>10.18</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11123,7 +12787,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>2.06</v>
+        <v>10.26</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11155,7 +12819,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>2.11</v>
+        <v>10.31</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.04</v>
@@ -11187,7 +12851,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>2.16</v>
+        <v>10.36</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.04</v>
@@ -11219,7 +12883,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>2.21</v>
+        <v>10.41</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.04</v>
@@ -11251,7 +12915,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>2.26</v>
+        <v>10.46</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.04</v>
@@ -11283,10 +12947,10 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>2.29</v>
+        <v>10.53</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>0.25</v>
@@ -11315,10 +12979,10 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>2.31</v>
+        <v>10.61</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>0.25</v>
@@ -11347,7 +13011,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>2.34</v>
+        <v>10.63</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -11379,7 +13043,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>2.36</v>
+        <v>10.66</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -11411,7 +13075,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>2.39</v>
+        <v>10.68</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -11443,7 +13107,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>2.41</v>
+        <v>10.71</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -11475,7 +13139,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>2.44</v>
+        <v>10.73</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -11507,7 +13171,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>2.46</v>
+        <v>10.76</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -11539,7 +13203,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>2.49</v>
+        <v>10.78</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -11571,7 +13235,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>2.51</v>
+        <v>10.81</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -11603,7 +13267,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>2.54</v>
+        <v>10.83</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -11635,7 +13299,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>2.56</v>
+        <v>10.86</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -11667,7 +13331,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>2.59</v>
+        <v>10.88</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -11699,7 +13363,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>2.61</v>
+        <v>10.91</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -11731,7 +13395,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>2.64</v>
+        <v>10.93</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -11763,7 +13427,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>2.66</v>
+        <v>10.96</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -11795,7 +13459,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>2.69</v>
+        <v>10.98</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -11827,7 +13491,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>2.71</v>
+        <v>11.01</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -11859,7 +13523,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>2.74</v>
+        <v>11.03</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -11891,7 +13555,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>2.76</v>
+        <v>11.06</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -11923,7 +13587,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>2.84</v>
+        <v>11.13</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11955,7 +13619,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>2.91</v>
+        <v>11.21</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -11987,7 +13651,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>2.99</v>
+        <v>11.28</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12019,7 +13683,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>3.21</v>
+        <v>11.51</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.22</v>
@@ -12051,7 +13715,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>3.51</v>
+        <v>11.81</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.29</v>
@@ -12083,7 +13747,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>3.81</v>
+        <v>12.11</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.29</v>
@@ -12115,7 +13779,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>4.11</v>
+        <v>12.41</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.29</v>
@@ -12147,7 +13811,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>4.41</v>
+        <v>12.71</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.29</v>
@@ -12179,7 +13843,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>4.71</v>
+        <v>13.01</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.29</v>
@@ -12211,7 +13875,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>5.01</v>
+        <v>13.31</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.29</v>
@@ -12243,7 +13907,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>5.31</v>
+        <v>13.61</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.29</v>
@@ -12275,7 +13939,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.29</v>
@@ -12307,7 +13971,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0</v>
@@ -12339,7 +14003,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0</v>
@@ -12371,7 +14035,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0</v>
@@ -12403,7 +14067,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>5.61</v>
+        <v>13.91</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0</v>
@@ -12435,7 +14099,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>5.52</v>
+        <v>13.81</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>-0.09</v>
@@ -12467,7 +14131,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>5.42</v>
+        <v>13.72</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>-0.09</v>
@@ -12499,7 +14163,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>5.33</v>
+        <v>13.62</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>-0.09</v>
@@ -12531,7 +14195,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>5.23</v>
+        <v>13.53</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>-0.09</v>
@@ -12563,7 +14227,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>4.95</v>
+        <v>13.24</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>-0.28</v>
@@ -12595,7 +14259,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>4.66</v>
+        <v>12.96</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>-0.28</v>
@@ -12627,7 +14291,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>4.38</v>
+        <v>12.67</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>-0.28</v>
@@ -12659,7 +14323,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>4.09</v>
+        <v>12.39</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>-0.28</v>
@@ -12691,7 +14355,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>3.73</v>
+        <v>12.02</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>-0.36</v>
@@ -12723,10 +14387,10 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>3.36</v>
+        <v>11.55</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>0</v>
@@ -12755,10 +14419,10 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>3</v>
+        <v>11.07</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>0</v>
@@ -12787,10 +14451,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>2.71</v>
+        <v>10.72</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.34</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>0</v>
@@ -12819,7 +14483,7 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>2.4</v>
+        <v>10.41</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>-0.3</v>
@@ -12851,7 +14515,7 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>2.1</v>
+        <v>10.11</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>-0.3</v>
@@ -12883,7 +14547,7 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>1.81</v>
+        <v>9.82</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>-0.29</v>
@@ -12915,7 +14579,7 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>1.51</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>-0.29</v>
@@ -12947,7 +14611,7 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>1.16</v>
+        <v>9.18</v>
       </c>
       <c r="D153" s="5" t="n">
         <v>-0.34</v>
@@ -12979,7 +14643,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>-0.34</v>
@@ -13011,7 +14675,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>0.46</v>
+        <v>8.48</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>-0.34</v>
@@ -13043,10 +14707,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>0.11</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>0</v>
@@ -13075,10 +14739,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>-0.09</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>0</v>
@@ -13107,7 +14771,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>-0.27</v>
+        <v>7.86</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>-0.17</v>
@@ -13139,7 +14803,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>-0.45</v>
+        <v>7.68</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>-0.17</v>
@@ -13171,7 +14835,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>-0.63</v>
+        <v>7.5</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>-0.17</v>
@@ -13203,7 +14867,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>-0.7</v>
+        <v>7.43</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>-0.06</v>
@@ -13235,7 +14899,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>-0.77</v>
+        <v>7.36</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>-0.06</v>
@@ -13267,7 +14931,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>-0.84</v>
+        <v>7.29</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>-0.06</v>
@@ -13299,7 +14963,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>-0.09</v>
@@ -13331,7 +14995,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0</v>
@@ -13363,7 +15027,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0</v>
@@ -13395,7 +15059,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0</v>
@@ -13427,7 +15091,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>-0.93</v>
+        <v>7.19</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0</v>
@@ -13459,7 +15123,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>-0.71</v>
+        <v>7.42</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.22</v>
@@ -13491,7 +15155,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>-0.48</v>
+        <v>7.64</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.22</v>
@@ -13523,7 +15187,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>-0.26</v>
+        <v>7.87</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.22</v>
@@ -13555,7 +15219,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>-0.03</v>
+        <v>8.09</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.22</v>
@@ -13587,7 +15251,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>0.18</v>
+        <v>8.32</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.22</v>
@@ -13619,7 +15283,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>0.41</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.22</v>
@@ -13651,7 +15315,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>0.63</v>
+        <v>8.77</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.22</v>
@@ -13683,7 +15347,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>0.86</v>
+        <v>8.99</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.22</v>
@@ -13715,7 +15379,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>1.16</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -13747,7 +15411,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>1.46</v>
+        <v>9.59</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -13779,7 +15443,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>1.76</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -13811,7 +15475,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>2.06</v>
+        <v>10.19</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -13843,7 +15507,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>2.36</v>
+        <v>10.49</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -13875,7 +15539,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>2.66</v>
+        <v>10.79</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -13907,7 +15571,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>2.96</v>
+        <v>11.09</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -13939,7 +15603,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>3.26</v>
+        <v>11.39</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -13971,7 +15635,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>3.56</v>
+        <v>11.69</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.29</v>
@@ -14003,7 +15667,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>3.86</v>
+        <v>11.99</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.29</v>
@@ -14035,7 +15699,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>4.16</v>
+        <v>12.29</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.29</v>
@@ -14067,7 +15731,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>4.26</v>
+        <v>12.39</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.09</v>
@@ -14099,7 +15763,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>4.33</v>
+        <v>12.47</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14131,7 +15795,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>4.41</v>
+        <v>12.54</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14163,7 +15827,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>4.48</v>
+        <v>12.62</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14195,7 +15859,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>4.56</v>
+        <v>12.69</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14227,7 +15891,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>4.61</v>
+        <v>12.74</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.04</v>
@@ -14259,7 +15923,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>4.66</v>
+        <v>12.79</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.04</v>
@@ -14291,7 +15955,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>4.71</v>
+        <v>12.84</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.04</v>
@@ -14323,7 +15987,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>4.76</v>
+        <v>12.89</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.04</v>
@@ -14355,7 +16019,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>4.78</v>
+        <v>12.92</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -14387,7 +16051,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>4.81</v>
+        <v>12.94</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -14419,7 +16083,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>4.83</v>
+        <v>12.97</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -14451,7 +16115,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>4.86</v>
+        <v>12.99</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -14483,7 +16147,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>4.88</v>
+        <v>13.02</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -14515,7 +16179,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>4.91</v>
+        <v>13.04</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -14547,7 +16211,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>4.93</v>
+        <v>13.07</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -14579,7 +16243,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>4.96</v>
+        <v>13.09</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -14611,7 +16275,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>4.98</v>
+        <v>13.12</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -14643,7 +16307,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>5.01</v>
+        <v>13.14</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -14675,7 +16339,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>5.03</v>
+        <v>13.17</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -14707,7 +16371,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>5.06</v>
+        <v>13.19</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -14739,7 +16403,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>5.08</v>
+        <v>13.22</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -14771,7 +16435,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>5.11</v>
+        <v>13.24</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -14803,7 +16467,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>5.13</v>
+        <v>13.27</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -14835,7 +16499,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>5.16</v>
+        <v>13.29</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -14867,7 +16531,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>5.18</v>
+        <v>13.32</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -14899,7 +16563,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>5.21</v>
+        <v>13.34</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -14931,7 +16595,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>5.23</v>
+        <v>13.37</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -14963,7 +16627,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>5.26</v>
+        <v>13.39</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -14995,7 +16659,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>5.33</v>
+        <v>13.47</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15027,7 +16691,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>5.41</v>
+        <v>13.54</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15059,7 +16723,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>5.48</v>
+        <v>13.62</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15091,7 +16755,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>5.71</v>
+        <v>13.84</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.22</v>
@@ -15123,7 +16787,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>6.01</v>
+        <v>14.14</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.29</v>
@@ -15155,7 +16819,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>6.31</v>
+        <v>14.44</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.29</v>
@@ -15187,7 +16851,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>6.61</v>
+        <v>14.74</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.29</v>
@@ -15219,7 +16883,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>6.91</v>
+        <v>15.04</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.29</v>
@@ -15251,7 +16915,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>7.21</v>
+        <v>15.34</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.29</v>
@@ -15283,7 +16947,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>7.51</v>
+        <v>15.64</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.29</v>
@@ -15315,7 +16979,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>7.81</v>
+        <v>15.94</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.29</v>
@@ -15347,7 +17011,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.29</v>
@@ -15379,7 +17043,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0</v>
@@ -15411,7 +17075,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0</v>
@@ -15443,7 +17107,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0</v>
@@ -15475,7 +17139,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>16.24</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0</v>
@@ -15507,7 +17171,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>8.01</v>
+        <v>16.15</v>
       </c>
       <c r="D233" s="5" t="n">
         <v>-0.09</v>
@@ -15539,7 +17203,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>7.92</v>
+        <v>16.05</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>-0.09</v>
@@ -15571,7 +17235,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>7.82</v>
+        <v>15.96</v>
       </c>
       <c r="D235" s="5" t="n">
         <v>-0.09</v>
@@ -15603,7 +17267,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>7.73</v>
+        <v>15.86</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>-0.09</v>
@@ -15635,7 +17299,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>7.44</v>
+        <v>15.58</v>
       </c>
       <c r="D237" s="5" t="n">
         <v>-0.28</v>
@@ -15667,7 +17331,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>7.16</v>
+        <v>15.29</v>
       </c>
       <c r="D238" s="5" t="n">
         <v>-0.28</v>
@@ -15699,7 +17363,7 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>6.87</v>
+        <v>15.01</v>
       </c>
       <c r="D239" s="5" t="n">
         <v>-0.28</v>
@@ -15723,6 +17387,1670 @@
         <v>0</v>
       </c>
       <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
